--- a/plana_bulk_term_request.xlsx
+++ b/plana_bulk_term_request.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smr/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{17DFEC7A-3EE5-CF41-98F3-7D4589AFDD82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11BEF18-C923-F34D-AD1F-DEBA0B5E8FD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-34920" yWindow="6200" windowWidth="27640" windowHeight="16560" xr2:uid="{6CB11D61-212C-964B-949A-95C0CEB1C428}"/>
   </bookViews>
@@ -126,9 +126,6 @@
     <t>results_in</t>
   </si>
   <si>
-    <t>results_ label</t>
-  </si>
-  <si>
     <t>PLANA:0000126</t>
   </si>
   <si>
@@ -280,6 +277,9 @@
   </si>
   <si>
     <t>definition</t>
+  </si>
+  <si>
+    <t>results_in_label</t>
   </si>
 </sst>
 </file>
@@ -341,12 +341,30 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -361,16 +379,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -687,459 +708,459 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{058893B5-D622-2A45-BF05-8AB8A4739124}">
   <dimension ref="A2:AL37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AL2" sqref="K2:AL2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="28" style="3"/>
+    <col min="1" max="16384" width="28" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:38" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL2" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="A3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="5" t="s">
+      <c r="N3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="5" t="s">
+      <c r="R3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="5" t="s">
+      <c r="AH3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AH3" s="5" t="s">
+      <c r="AI3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AI3" s="5" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AJ3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="L4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="M4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="N4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="5" t="s">
+      <c r="R4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="R4" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="D5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="5" t="s">
+      <c r="R5" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="R5" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
     </row>
     <row r="34" spans="1:38" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="7"/>
-      <c r="W34" s="7"/>
-      <c r="X34" s="7"/>
-      <c r="Y34" s="7"/>
-      <c r="Z34" s="7"/>
-      <c r="AA34" s="7"/>
-      <c r="AB34" s="7"/>
-      <c r="AC34" s="7"/>
-      <c r="AD34" s="7"/>
-      <c r="AE34" s="7"/>
-      <c r="AF34" s="7"/>
-      <c r="AG34" s="7"/>
-      <c r="AH34" s="7"/>
-      <c r="AI34" s="7"/>
-      <c r="AJ34" s="7"/>
-      <c r="AK34" s="7"/>
-      <c r="AL34" s="7"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="5"/>
     </row>
     <row r="35" spans="1:38" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="8"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="8"/>
-      <c r="X35" s="8"/>
-      <c r="Y35" s="8"/>
-      <c r="Z35" s="8"/>
-      <c r="AA35" s="8"/>
-      <c r="AB35" s="8"/>
-      <c r="AC35" s="8"/>
-      <c r="AD35" s="8"/>
-      <c r="AE35" s="8"/>
-      <c r="AF35" s="8"/>
-      <c r="AG35" s="8"/>
-      <c r="AH35" s="8"/>
-      <c r="AI35" s="8"/>
-      <c r="AJ35" s="8"/>
-      <c r="AK35" s="8"/>
-      <c r="AL35" s="8"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="6"/>
+      <c r="AC35" s="6"/>
+      <c r="AD35" s="6"/>
+      <c r="AE35" s="6"/>
+      <c r="AF35" s="6"/>
+      <c r="AG35" s="6"/>
+      <c r="AH35" s="6"/>
+      <c r="AI35" s="6"/>
+      <c r="AJ35" s="6"/>
+      <c r="AK35" s="6"/>
+      <c r="AL35" s="6"/>
     </row>
     <row r="36" spans="1:38" ht="18" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="8"/>
-      <c r="V36" s="8"/>
-      <c r="W36" s="8"/>
-      <c r="X36" s="8"/>
-      <c r="Y36" s="8"/>
-      <c r="Z36" s="8"/>
-      <c r="AA36" s="8"/>
-      <c r="AB36" s="8"/>
-      <c r="AC36" s="8"/>
-      <c r="AD36" s="8"/>
-      <c r="AE36" s="8"/>
-      <c r="AF36" s="8"/>
-      <c r="AG36" s="8"/>
-      <c r="AH36" s="8"/>
-      <c r="AI36" s="8"/>
-      <c r="AJ36" s="8"/>
-      <c r="AK36" s="8"/>
-      <c r="AL36" s="8"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6"/>
+      <c r="AC36" s="6"/>
+      <c r="AD36" s="6"/>
+      <c r="AE36" s="6"/>
+      <c r="AF36" s="6"/>
+      <c r="AG36" s="6"/>
+      <c r="AH36" s="6"/>
+      <c r="AI36" s="6"/>
+      <c r="AJ36" s="6"/>
+      <c r="AK36" s="6"/>
+      <c r="AL36" s="6"/>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A37"/>
